--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM028.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657A60B-F822-4E3E-B869-DD263D14E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E315A7-0329-4B21-B224-EFDA4E98A693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -189,15 +189,6 @@
     <t xml:space="preserve">繳息週期     </t>
   </si>
   <si>
-    <t xml:space="preserve">扣款銀行     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸款期間－月 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸款期間－日 </t>
-  </si>
-  <si>
     <t xml:space="preserve">放款餘額     </t>
   </si>
   <si>
@@ -211,9 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve">首次調整週期 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本利率代碼 </t>
   </si>
   <si>
     <t xml:space="preserve">利率1        </t>
@@ -321,16 +309,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>LoanTermMm</t>
-  </si>
-  <si>
-    <t>LoanTermDd</t>
-  </si>
-  <si>
-    <t>RepayBank</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanBal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -348,10 +326,6 @@
   </si>
   <si>
     <t>FirstRateAdjFreq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseRateCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -555,6 +529,46 @@
   <si>
     <t>DataMonth ASC,CustNo ASC,FacmNo ASC,BormNo ASC</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaturityYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaturityMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaturityDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度主檔到期日-年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度主檔到期日-月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度主檔到期日-日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-09 智偉修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品代碼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-10 智偉修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1218,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1245,7 @@
     <col min="3" max="3" width="44.21875" style="15" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="17"/>
   </cols>
   <sheetData>
@@ -1244,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1269,7 +1283,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
@@ -1350,20 +1364,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>38</v>
@@ -1384,7 +1398,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1392,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>39</v>
@@ -1405,7 +1419,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>26</v>
@@ -1426,7 +1440,7 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>40</v>
@@ -1447,7 +1461,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1455,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>41</v>
@@ -1468,7 +1482,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>42</v>
@@ -1489,7 +1503,7 @@
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="30" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>43</v>
@@ -1512,105 +1526,114 @@
         <v>4</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17" s="27">
         <v>2</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>10</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E18" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>11</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" s="27">
         <v>2</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>12</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>13</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E21" s="27">
         <v>16</v>
@@ -1619,18 +1642,18 @@
         <v>2</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>14</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>26</v>
@@ -1640,105 +1663,108 @@
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E23" s="27">
         <v>1</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" s="27">
         <v>2</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" s="27">
         <v>2</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>18</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E27" s="27">
         <v>6</v>
@@ -1747,21 +1773,21 @@
         <v>4</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>20</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="27">
         <v>6</v>
@@ -1770,21 +1796,21 @@
         <v>4</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>21</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29" s="27">
         <v>6</v>
@@ -1793,21 +1819,21 @@
         <v>4</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E30" s="27">
         <v>6</v>
@@ -1816,21 +1842,21 @@
         <v>4</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E31" s="27">
         <v>6</v>
@@ -1839,18 +1865,18 @@
         <v>4</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>32</v>
@@ -1860,7 +1886,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1868,10 +1894,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>13</v>
@@ -1881,7 +1907,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>13</v>
@@ -1902,7 +1928,7 @@
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1910,10 +1936,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>13</v>
@@ -1923,7 +1949,7 @@
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1931,10 +1957,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>13</v>
@@ -1944,7 +1970,7 @@
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1952,10 +1978,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>13</v>
@@ -1965,7 +1991,7 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1973,10 +1999,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>26</v>
@@ -1986,7 +2012,7 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -1994,10 +2020,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>26</v>
@@ -2007,7 +2033,7 @@
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2015,10 +2041,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>26</v>
@@ -2028,7 +2054,7 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2036,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="27">
         <v>6</v>
@@ -2051,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2059,20 +2085,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E42" s="27">
         <v>8</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2202,13 +2228,13 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2246,13 +2272,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
